--- a/Code/Results/Cases/Case_4_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.792640909794272</v>
+        <v>3.089818895106305</v>
       </c>
       <c r="C2">
-        <v>1.709115029272994</v>
+        <v>0.6710527065372389</v>
       </c>
       <c r="D2">
-        <v>0.1984014074214997</v>
+        <v>0.07649502283095444</v>
       </c>
       <c r="E2">
-        <v>0.05690829556717958</v>
+        <v>0.02556318955146963</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008011588601938634</v>
+        <v>0.002594716094228344</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.130598337867923</v>
+        <v>2.432396063440251</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1866840393347431</v>
+        <v>0.2347630007426815</v>
       </c>
       <c r="M2">
-        <v>0.7434871102855425</v>
+        <v>0.5549608233648229</v>
       </c>
       <c r="N2">
-        <v>1.906468642777313</v>
+        <v>2.806699538054573</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.157367513939107</v>
+        <v>2.955433672008326</v>
       </c>
       <c r="C3">
-        <v>1.46625381214011</v>
+        <v>0.6127908413940872</v>
       </c>
       <c r="D3">
-        <v>0.1702600408517583</v>
+        <v>0.06966646358756634</v>
       </c>
       <c r="E3">
-        <v>0.0493436961267868</v>
+        <v>0.02343348597613826</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008136909498212583</v>
+        <v>0.002602125036305126</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.957808841556954</v>
+        <v>2.400344711970476</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1686939784912198</v>
+        <v>0.2318836519922129</v>
       </c>
       <c r="M3">
-        <v>0.6488340411541387</v>
+        <v>0.5356864127814234</v>
       </c>
       <c r="N3">
-        <v>1.887936907126047</v>
+        <v>2.80358162422533</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.77816964539528</v>
+        <v>2.875088164966996</v>
       </c>
       <c r="C4">
-        <v>1.321310124591491</v>
+        <v>0.5774485357267167</v>
       </c>
       <c r="D4">
-        <v>0.1534432857130383</v>
+        <v>0.06552182120543648</v>
       </c>
       <c r="E4">
-        <v>0.04481714086222155</v>
+        <v>0.02211642268667724</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008215371341997457</v>
+        <v>0.002606907520218936</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.856818628942051</v>
+        <v>2.381854989151776</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1580421740247218</v>
+        <v>0.2302414597080471</v>
       </c>
       <c r="M4">
-        <v>0.5924006144257916</v>
+        <v>0.5242271041360453</v>
       </c>
       <c r="N4">
-        <v>1.87944423192026</v>
+        <v>2.802363001105647</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.625994033713027</v>
+        <v>2.842886854036522</v>
       </c>
       <c r="C5">
-        <v>1.263133537352871</v>
+        <v>0.563152012576893</v>
       </c>
       <c r="D5">
-        <v>0.146688861711695</v>
+        <v>0.06384465682764073</v>
       </c>
       <c r="E5">
-        <v>0.04299663652556518</v>
+        <v>0.0215772361559452</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008247766388917288</v>
+        <v>0.002608915333195599</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.816800698836971</v>
+        <v>2.374617358959426</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1537895159634246</v>
+        <v>0.2296037657318877</v>
       </c>
       <c r="M5">
-        <v>0.5697701717801422</v>
+        <v>0.5196510019958609</v>
       </c>
       <c r="N5">
-        <v>1.876644013787171</v>
+        <v>2.802040132278719</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.600857038304639</v>
+        <v>2.837572332054719</v>
       </c>
       <c r="C6">
-        <v>1.253522721157879</v>
+        <v>0.5607843991617187</v>
       </c>
       <c r="D6">
-        <v>0.145572767517379</v>
+        <v>0.06356686994753602</v>
       </c>
       <c r="E6">
-        <v>0.04269564817058047</v>
+        <v>0.02148755227292298</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008253172100136213</v>
+        <v>0.002609252293864517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.81022040755515</v>
+        <v>2.373433437175166</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.153088381555861</v>
+        <v>0.2294997774063887</v>
       </c>
       <c r="M6">
-        <v>0.5660330077800779</v>
+        <v>0.5188967802802296</v>
       </c>
       <c r="N6">
-        <v>1.876217176602708</v>
+        <v>2.801996977233273</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.776108306418848</v>
+        <v>2.874651706248869</v>
       </c>
       <c r="C7">
-        <v>1.320522133233851</v>
+        <v>0.5772553029716505</v>
       </c>
       <c r="D7">
-        <v>0.153351816101619</v>
+        <v>0.06549915493656044</v>
       </c>
       <c r="E7">
-        <v>0.04479249821296705</v>
+        <v>0.02210916117737405</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008215806476653706</v>
+        <v>0.002606934359530744</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.856274513907294</v>
+        <v>2.381756179856851</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1579844784886077</v>
+        <v>0.2302327320866127</v>
       </c>
       <c r="M7">
-        <v>0.5920939982942457</v>
+        <v>0.5241650109144587</v>
       </c>
       <c r="N7">
-        <v>1.879403872990849</v>
+        <v>2.802357944969557</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.571100440902569</v>
+        <v>3.043029956038652</v>
       </c>
       <c r="C8">
-        <v>1.624407344005419</v>
+        <v>0.6508730548909512</v>
       </c>
       <c r="D8">
-        <v>0.1885910352983018</v>
+        <v>0.07413037079147955</v>
       </c>
       <c r="E8">
-        <v>0.05427189790580655</v>
+        <v>0.02483075834600612</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008054510757837073</v>
+        <v>0.002597222402242139</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.069867423094706</v>
+        <v>2.421096475321463</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1803921873186667</v>
+        <v>0.2337440381652556</v>
       </c>
       <c r="M8">
-        <v>0.710464905828367</v>
+        <v>0.5482366874840849</v>
       </c>
       <c r="N8">
-        <v>1.899438318676545</v>
+        <v>2.805479321366604</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.236201768613682</v>
+        <v>3.390664095720865</v>
       </c>
       <c r="C9">
-        <v>2.261873268196325</v>
+        <v>0.7987787367351302</v>
       </c>
       <c r="D9">
-        <v>0.2622872422394806</v>
+        <v>0.09145203594093232</v>
       </c>
       <c r="E9">
-        <v>0.07409560159554474</v>
+        <v>0.03009804859263809</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007748120501642809</v>
+        <v>0.002580018360902034</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.536891444860203</v>
+        <v>2.50778819831919</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2280373227382739</v>
+        <v>0.2416329225504512</v>
       </c>
       <c r="M9">
-        <v>0.9589206296699331</v>
+        <v>0.5984540729481154</v>
       </c>
       <c r="N9">
-        <v>1.965023752213057</v>
+        <v>2.81717877627959</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.557343842395596</v>
+        <v>3.65708244291443</v>
       </c>
       <c r="C10">
-        <v>2.769609108747602</v>
+        <v>0.9097884623059826</v>
       </c>
       <c r="D10">
-        <v>0.3207682795947449</v>
+        <v>0.1044405453853159</v>
       </c>
       <c r="E10">
-        <v>0.08991485297345037</v>
+        <v>0.03393263077170516</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007525577838389982</v>
+        <v>0.002568486096492636</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.922116011952497</v>
+        <v>2.577454640886998</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2662490033452514</v>
+        <v>0.2480492789715498</v>
       </c>
       <c r="M10">
-        <v>1.156339072677454</v>
+        <v>0.6372399652406386</v>
       </c>
       <c r="N10">
-        <v>2.034883713307295</v>
+        <v>2.829258101989581</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.188934459343386</v>
+        <v>3.78075948295924</v>
       </c>
       <c r="C11">
-        <v>3.013138770196861</v>
+        <v>0.9608398105238507</v>
       </c>
       <c r="D11">
-        <v>0.3487484130410934</v>
+        <v>0.1104109945121365</v>
       </c>
       <c r="E11">
-        <v>0.09752904177060628</v>
+        <v>0.03567102171637515</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007423917151916195</v>
+        <v>0.002563477079565288</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.110100066979768</v>
+        <v>2.610479695449015</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2845934283108846</v>
+        <v>0.251104989452358</v>
       </c>
       <c r="M11">
-        <v>1.250765734410706</v>
+        <v>0.655307692988174</v>
       </c>
       <c r="N11">
-        <v>2.072966957812667</v>
+        <v>2.835528160818541</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.433481115034851</v>
+        <v>3.827956188153337</v>
       </c>
       <c r="C12">
-        <v>3.107585146549752</v>
+        <v>0.9802542791995847</v>
       </c>
       <c r="D12">
-        <v>0.3595873681597652</v>
+        <v>0.1126811138785939</v>
       </c>
       <c r="E12">
-        <v>0.1004880119408966</v>
+        <v>0.03632857184796023</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000738525758032571</v>
+        <v>0.002561614138825828</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.183494927990893</v>
+        <v>2.623179895880014</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.29170578100846</v>
+        <v>0.25228194311876</v>
       </c>
       <c r="M12">
-        <v>1.28733216342998</v>
+        <v>0.6622113599871398</v>
       </c>
       <c r="N12">
-        <v>2.088462854402792</v>
+        <v>2.838015419514079</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.380556653627821</v>
+        <v>3.817775296429602</v>
       </c>
       <c r="C13">
-        <v>3.087137678550221</v>
+        <v>0.9760693116345465</v>
       </c>
       <c r="D13">
-        <v>0.3572413459726391</v>
+        <v>0.1121917866700954</v>
       </c>
       <c r="E13">
-        <v>0.09984709392383451</v>
+        <v>0.03618698768979911</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007393592708829063</v>
+        <v>0.002562013853931838</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.167582895594961</v>
+        <v>2.620435995910043</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2901661410252387</v>
+        <v>0.2520275812090063</v>
       </c>
       <c r="M13">
-        <v>1.279418306953659</v>
+        <v>0.6607217687215012</v>
       </c>
       <c r="N13">
-        <v>2.085074673809089</v>
+        <v>2.837474697957219</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.208939354297968</v>
+        <v>3.78463507652009</v>
       </c>
       <c r="C14">
-        <v>3.02086155666899</v>
+        <v>0.9624353811694277</v>
       </c>
       <c r="D14">
-        <v>0.3496349651242099</v>
+        <v>0.1105975714622929</v>
       </c>
       <c r="E14">
-        <v>0.09777086011701996</v>
+        <v>0.0357251329179924</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007420740529703339</v>
+        <v>0.002563323136809103</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.116091580843047</v>
+        <v>2.61152063895014</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2851750675671099</v>
+        <v>0.2512014200515011</v>
       </c>
       <c r="M14">
-        <v>1.253756922394302</v>
+        <v>0.6558744180170493</v>
       </c>
       <c r="N14">
-        <v>2.074219185760086</v>
+        <v>2.835730517465009</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.10455157937713</v>
+        <v>3.76438317476925</v>
       </c>
       <c r="C15">
-        <v>2.980569596295595</v>
+        <v>0.9540950297712811</v>
       </c>
       <c r="D15">
-        <v>0.3450090616825889</v>
+        <v>0.1096222820417552</v>
       </c>
       <c r="E15">
-        <v>0.09650948016672345</v>
+        <v>0.0354421406334815</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007437344757357277</v>
+        <v>0.00256412951405884</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.084851937613493</v>
+        <v>2.606085110352453</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2821403808033978</v>
+        <v>0.2506979581745838</v>
       </c>
       <c r="M15">
-        <v>1.238148766683381</v>
+        <v>0.6529133513601408</v>
       </c>
       <c r="N15">
-        <v>2.067715432311047</v>
+        <v>2.83467690637633</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.5167625926141</v>
+        <v>3.649050309812651</v>
       </c>
       <c r="C16">
-        <v>2.753980568961651</v>
+        <v>0.9064635076065883</v>
       </c>
       <c r="D16">
-        <v>0.3189710946470541</v>
+        <v>0.1040516369648969</v>
       </c>
       <c r="E16">
-        <v>0.08942690812360254</v>
+        <v>0.03381891263824954</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007532204822212993</v>
+        <v>0.002568818198651777</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.910117709496149</v>
+        <v>2.575323427547147</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.265071726663038</v>
+        <v>0.2478523472617695</v>
       </c>
       <c r="M16">
-        <v>1.150272741844383</v>
+        <v>0.636067798654409</v>
       </c>
       <c r="N16">
-        <v>2.03253531611162</v>
+        <v>2.828864060647902</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.16464392841641</v>
+        <v>3.578937242531083</v>
       </c>
       <c r="C17">
-        <v>2.618464673929964</v>
+        <v>0.8773867173488838</v>
       </c>
       <c r="D17">
-        <v>0.3033798047158314</v>
+        <v>0.1006503212662437</v>
       </c>
       <c r="E17">
-        <v>0.0851990306058461</v>
+        <v>0.03282166733990621</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007590223478607488</v>
+        <v>0.002571755113854874</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.806432450161722</v>
+        <v>2.556795476778575</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2548648531843725</v>
+        <v>0.2461418126684833</v>
       </c>
       <c r="M17">
-        <v>1.097640972588962</v>
+        <v>0.6258427586045059</v>
       </c>
       <c r="N17">
-        <v>2.012677031580353</v>
+        <v>2.825497626128083</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.964925579425199</v>
+        <v>3.538843310748859</v>
       </c>
       <c r="C18">
-        <v>2.541671752124273</v>
+        <v>0.8607143350986917</v>
       </c>
       <c r="D18">
-        <v>0.2945384902261026</v>
+        <v>0.0986997812230328</v>
       </c>
       <c r="E18">
-        <v>0.08280549678096705</v>
+        <v>0.0322475081280551</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007623561447280611</v>
+        <v>0.002573466677164761</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.747968336840614</v>
+        <v>2.546264041484591</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.249082730837813</v>
+        <v>0.2451708333703948</v>
       </c>
       <c r="M18">
-        <v>1.067793236261103</v>
+        <v>0.6200014258956301</v>
       </c>
       <c r="N18">
-        <v>2.001836531375744</v>
+        <v>2.823634210339435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.897760569108868</v>
+        <v>3.525308075379485</v>
       </c>
       <c r="C19">
-        <v>2.51585745766107</v>
+        <v>0.8550781628232471</v>
       </c>
       <c r="D19">
-        <v>0.2915654415977684</v>
+        <v>0.09804034904165349</v>
       </c>
       <c r="E19">
-        <v>0.08200123446800589</v>
+        <v>0.0320530061782307</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007634846245101828</v>
+        <v>0.002574050024843093</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.728364582902699</v>
+        <v>2.542719729990509</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2471394709406241</v>
+        <v>0.2448442835728173</v>
       </c>
       <c r="M19">
-        <v>1.057756298775416</v>
+        <v>0.6180304675853563</v>
       </c>
       <c r="N19">
-        <v>1.998261417566113</v>
+        <v>2.82301576077424</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.201830190220903</v>
+        <v>3.58637671487071</v>
       </c>
       <c r="C20">
-        <v>2.632768550229059</v>
+        <v>0.8804766068572007</v>
       </c>
       <c r="D20">
-        <v>0.3050261440665025</v>
+        <v>0.1010117937279063</v>
       </c>
       <c r="E20">
-        <v>0.08564503714515581</v>
+        <v>0.03292788395093282</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007584051363283405</v>
+        <v>0.002571440165041494</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.817346046825392</v>
+        <v>2.55875481679989</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2559420408454116</v>
+        <v>0.24632256849047</v>
       </c>
       <c r="M20">
-        <v>1.103198807838261</v>
+        <v>0.6269271021101943</v>
       </c>
       <c r="N20">
-        <v>2.014729693007268</v>
+        <v>2.825848436722623</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.259192757961216</v>
+        <v>3.794359265113599</v>
       </c>
       <c r="C21">
-        <v>3.040264204846096</v>
+        <v>0.9664377357677267</v>
       </c>
       <c r="D21">
-        <v>0.351862124229001</v>
+        <v>0.1110655776253964</v>
       </c>
       <c r="E21">
-        <v>0.09837850554912109</v>
+        <v>0.03586081000502972</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007412771896787382</v>
+        <v>0.002562937651420238</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.131152461709263</v>
+        <v>2.614134000504379</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2866363228933722</v>
+        <v>0.2514435444999776</v>
       </c>
       <c r="M21">
-        <v>1.261271028117079</v>
+        <v>0.657296517894622</v>
       </c>
       <c r="N21">
-        <v>2.077377021356369</v>
+        <v>2.836239749051714</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.982197630964265</v>
+        <v>3.932405999690673</v>
       </c>
       <c r="C22">
-        <v>3.319834156290028</v>
+        <v>1.023100205432343</v>
       </c>
       <c r="D22">
-        <v>0.3839200842525088</v>
+        <v>0.1176903249757544</v>
       </c>
       <c r="E22">
-        <v>0.1071515037926041</v>
+        <v>0.03777338567346433</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007299817386266301</v>
+        <v>0.002557578056365238</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.349358691537446</v>
+        <v>2.651461435747152</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3076798153727083</v>
+        <v>0.2549060067203186</v>
       </c>
       <c r="M22">
-        <v>1.369387466581188</v>
+        <v>0.67750538407752</v>
       </c>
       <c r="N22">
-        <v>2.124690465540738</v>
+        <v>2.843689974315424</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.593011793420715</v>
+        <v>3.85853203332158</v>
       </c>
       <c r="C23">
-        <v>3.169245593446249</v>
+        <v>0.9928132815356889</v>
       </c>
       <c r="D23">
-        <v>0.3666599362686043</v>
+        <v>0.1141495167582889</v>
       </c>
       <c r="E23">
-        <v>0.1024217933863625</v>
+        <v>0.03675295801242129</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007360235666787539</v>
+        <v>0.002560420595378643</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.231551106494891</v>
+        <v>2.63143445767362</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2963479600798564</v>
+        <v>0.2530473999686933</v>
       </c>
       <c r="M23">
-        <v>1.311187561875656</v>
+        <v>0.666686236393744</v>
       </c>
       <c r="N23">
-        <v>2.098790021755377</v>
+        <v>2.839652869112967</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.18500988202527</v>
+        <v>3.583012660184693</v>
       </c>
       <c r="C24">
-        <v>2.6262983191844</v>
+        <v>0.8790795302008974</v>
       </c>
       <c r="D24">
-        <v>0.3042814563323617</v>
+        <v>0.1008483567234038</v>
       </c>
       <c r="E24">
-        <v>0.08544328306356164</v>
+        <v>0.03287986601412385</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007586841824277166</v>
+        <v>0.002571582481349467</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.812408467846979</v>
+        <v>2.557868623945538</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2554547785989456</v>
+        <v>0.2462408100777935</v>
       </c>
       <c r="M24">
-        <v>1.100684840961364</v>
+        <v>0.6264367546719143</v>
       </c>
       <c r="N24">
-        <v>2.013799901962386</v>
+        <v>2.825689611123465</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.77130416063261</v>
+        <v>3.29471382866609</v>
       </c>
       <c r="C25">
-        <v>2.083668222570964</v>
+        <v>0.7583683289681744</v>
       </c>
       <c r="D25">
-        <v>0.2417157769176157</v>
+        <v>0.08672154255728515</v>
       </c>
       <c r="E25">
-        <v>0.0685543006657312</v>
+        <v>0.02867983450942901</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007830271020045853</v>
+        <v>0.002584476942991809</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.404206247553958</v>
+        <v>2.483298058301528</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.214662766414051</v>
+        <v>0.2393904739806914</v>
       </c>
       <c r="M25">
-        <v>0.8894996287246357</v>
+        <v>0.584540837694199</v>
       </c>
       <c r="N25">
-        <v>1.943940993708068</v>
+        <v>2.813408059575139</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.089818895106305</v>
+        <v>4.792640909794159</v>
       </c>
       <c r="C2">
-        <v>0.6710527065372389</v>
+        <v>1.709115029272994</v>
       </c>
       <c r="D2">
-        <v>0.07649502283095444</v>
+        <v>0.1984014074212865</v>
       </c>
       <c r="E2">
-        <v>0.02556318955146963</v>
+        <v>0.05690829556717958</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002594716094228344</v>
+        <v>0.0008011588601205201</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.432396063440251</v>
+        <v>2.130598337867966</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2347630007426815</v>
+        <v>0.1866840393347289</v>
       </c>
       <c r="M2">
-        <v>0.5549608233648229</v>
+        <v>0.7434871102855283</v>
       </c>
       <c r="N2">
-        <v>2.806699538054573</v>
+        <v>1.906468642777341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.955433672008326</v>
+        <v>4.157367513939164</v>
       </c>
       <c r="C3">
-        <v>0.6127908413940872</v>
+        <v>1.466253812140394</v>
       </c>
       <c r="D3">
-        <v>0.06966646358756634</v>
+        <v>0.1702600408520993</v>
       </c>
       <c r="E3">
-        <v>0.02343348597613826</v>
+        <v>0.04934369612677969</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002602125036305126</v>
+        <v>0.0008136909498170133</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.400344711970476</v>
+        <v>1.957808841556968</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2318836519922129</v>
+        <v>0.1686939784911061</v>
       </c>
       <c r="M3">
-        <v>0.5356864127814234</v>
+        <v>0.6488340411541316</v>
       </c>
       <c r="N3">
-        <v>2.80358162422533</v>
+        <v>1.887936907126075</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.875088164966996</v>
+        <v>3.778169645395167</v>
       </c>
       <c r="C4">
-        <v>0.5774485357267167</v>
+        <v>1.321310124591548</v>
       </c>
       <c r="D4">
-        <v>0.06552182120543648</v>
+        <v>0.1534432857131236</v>
       </c>
       <c r="E4">
-        <v>0.02211642268667724</v>
+        <v>0.04481714086223576</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002606907520218936</v>
+        <v>0.0008215371341932195</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.381854989151776</v>
+        <v>1.856818628942037</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2302414597080471</v>
+        <v>0.1580421740248354</v>
       </c>
       <c r="M4">
-        <v>0.5242271041360453</v>
+        <v>0.5924006144257632</v>
       </c>
       <c r="N4">
-        <v>2.802363001105647</v>
+        <v>1.879444231920189</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.842886854036522</v>
+        <v>3.625994033712971</v>
       </c>
       <c r="C5">
-        <v>0.563152012576893</v>
+        <v>1.263133537353269</v>
       </c>
       <c r="D5">
-        <v>0.06384465682764073</v>
+        <v>0.1466888617115956</v>
       </c>
       <c r="E5">
-        <v>0.0215772361559452</v>
+        <v>0.04299663652561847</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002608915333195599</v>
+        <v>0.0008247766387658408</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.374617358959426</v>
+        <v>1.816800698836985</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2296037657318877</v>
+        <v>0.153789515963453</v>
       </c>
       <c r="M5">
-        <v>0.5196510019958609</v>
+        <v>0.5697701717801635</v>
       </c>
       <c r="N5">
-        <v>2.802040132278719</v>
+        <v>1.876644013787256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.837572332054719</v>
+        <v>3.600857038304582</v>
       </c>
       <c r="C6">
-        <v>0.5607843991617187</v>
+        <v>1.253522721157822</v>
       </c>
       <c r="D6">
-        <v>0.06356686994753602</v>
+        <v>0.1455727675171374</v>
       </c>
       <c r="E6">
-        <v>0.02148755227292298</v>
+        <v>0.04269564817054317</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002609252293864517</v>
+        <v>0.0008253172099552895</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.373433437175166</v>
+        <v>1.810220407555178</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2294997774063887</v>
+        <v>0.1530883815558752</v>
       </c>
       <c r="M6">
-        <v>0.5188967802802296</v>
+        <v>0.5660330077800708</v>
       </c>
       <c r="N6">
-        <v>2.801996977233273</v>
+        <v>1.876217176602765</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.874651706248869</v>
+        <v>3.776108306419019</v>
       </c>
       <c r="C7">
-        <v>0.5772553029716505</v>
+        <v>1.320522133233851</v>
       </c>
       <c r="D7">
-        <v>0.06549915493656044</v>
+        <v>0.1533518161018605</v>
       </c>
       <c r="E7">
-        <v>0.02210916117737405</v>
+        <v>0.04479249821296705</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002606934359530744</v>
+        <v>0.0008215806477241757</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.381756179856851</v>
+        <v>1.856274513907323</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2302327320866127</v>
+        <v>0.1579844784885935</v>
       </c>
       <c r="M7">
-        <v>0.5241650109144587</v>
+        <v>0.5920939982942173</v>
       </c>
       <c r="N7">
-        <v>2.802357944969557</v>
+        <v>1.879403872990849</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.043029956038652</v>
+        <v>4.571100440902512</v>
       </c>
       <c r="C8">
-        <v>0.6508730548909512</v>
+        <v>1.624407344005647</v>
       </c>
       <c r="D8">
-        <v>0.07413037079147955</v>
+        <v>0.1885910352983018</v>
       </c>
       <c r="E8">
-        <v>0.02483075834600612</v>
+        <v>0.05427189790577103</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002597222402242139</v>
+        <v>0.0008054510758594453</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.421096475321463</v>
+        <v>2.069867423094763</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2337440381652556</v>
+        <v>0.1803921873186098</v>
       </c>
       <c r="M8">
-        <v>0.5482366874840849</v>
+        <v>0.7104649058283741</v>
       </c>
       <c r="N8">
-        <v>2.805479321366604</v>
+        <v>1.899438318676587</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.390664095720865</v>
+        <v>6.236201768613626</v>
       </c>
       <c r="C9">
-        <v>0.7987787367351302</v>
+        <v>2.261873268196553</v>
       </c>
       <c r="D9">
-        <v>0.09145203594093232</v>
+        <v>0.2622872422394664</v>
       </c>
       <c r="E9">
-        <v>0.03009804859263809</v>
+        <v>0.07409560159554474</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002580018360902034</v>
+        <v>0.0007748120501628284</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.50778819831919</v>
+        <v>2.536891444860188</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2416329225504512</v>
+        <v>0.2280373227382455</v>
       </c>
       <c r="M9">
-        <v>0.5984540729481154</v>
+        <v>0.9589206296699402</v>
       </c>
       <c r="N9">
-        <v>2.81717877627959</v>
+        <v>1.965023752213057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.65708244291443</v>
+        <v>7.557343842395369</v>
       </c>
       <c r="C10">
-        <v>0.9097884623059826</v>
+        <v>2.76960910874692</v>
       </c>
       <c r="D10">
-        <v>0.1044405453853159</v>
+        <v>0.3207682795943185</v>
       </c>
       <c r="E10">
-        <v>0.03393263077170516</v>
+        <v>0.08991485297340418</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002568486096492636</v>
+        <v>0.0007525577837492609</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.577454640886998</v>
+        <v>2.922116011952511</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2480492789715498</v>
+        <v>0.2662490033451235</v>
       </c>
       <c r="M10">
-        <v>0.6372399652406386</v>
+        <v>1.156339072677454</v>
       </c>
       <c r="N10">
-        <v>2.829258101989581</v>
+        <v>2.034883713307295</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.78075948295924</v>
+        <v>8.188934459343329</v>
       </c>
       <c r="C11">
-        <v>0.9608398105238507</v>
+        <v>3.013138770197202</v>
       </c>
       <c r="D11">
-        <v>0.1104109945121365</v>
+        <v>0.3487484130408802</v>
       </c>
       <c r="E11">
-        <v>0.03567102171637515</v>
+        <v>0.09752904177061339</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002563477079565288</v>
+        <v>0.0007423917150959369</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.610479695449015</v>
+        <v>3.110100066979783</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.251104989452358</v>
+        <v>0.2845934283109557</v>
       </c>
       <c r="M11">
-        <v>0.655307692988174</v>
+        <v>1.250765734410706</v>
       </c>
       <c r="N11">
-        <v>2.835528160818541</v>
+        <v>2.072966957812696</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.827956188153337</v>
+        <v>8.433481115034965</v>
       </c>
       <c r="C12">
-        <v>0.9802542791995847</v>
+        <v>3.107585146550207</v>
       </c>
       <c r="D12">
-        <v>0.1126811138785939</v>
+        <v>0.3595873681595663</v>
       </c>
       <c r="E12">
-        <v>0.03632857184796023</v>
+        <v>0.1004880119409997</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002561614138825828</v>
+        <v>0.000738525758119435</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.623179895880014</v>
+        <v>3.183494927990907</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.25228194311876</v>
+        <v>0.2917057810084458</v>
       </c>
       <c r="M12">
-        <v>0.6622113599871398</v>
+        <v>1.287332163430023</v>
       </c>
       <c r="N12">
-        <v>2.838015419514079</v>
+        <v>2.088462854402849</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.817775296429602</v>
+        <v>8.380556653627764</v>
       </c>
       <c r="C13">
-        <v>0.9760693116345465</v>
+        <v>3.087137678550164</v>
       </c>
       <c r="D13">
-        <v>0.1121917866700954</v>
+        <v>0.3572413459726391</v>
       </c>
       <c r="E13">
-        <v>0.03618698768979911</v>
+        <v>0.09984709392384161</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002562013853931838</v>
+        <v>0.0007393592709389677</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.620435995910043</v>
+        <v>3.167582895594961</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2520275812090063</v>
+        <v>0.290166141025253</v>
       </c>
       <c r="M13">
-        <v>0.6607217687215012</v>
+        <v>1.279418306953673</v>
       </c>
       <c r="N13">
-        <v>2.837474697957219</v>
+        <v>2.085074673809089</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.78463507652009</v>
+        <v>8.208939354297968</v>
       </c>
       <c r="C14">
-        <v>0.9624353811694277</v>
+        <v>3.020861556668649</v>
       </c>
       <c r="D14">
-        <v>0.1105975714622929</v>
+        <v>0.3496349651239683</v>
       </c>
       <c r="E14">
-        <v>0.0357251329179924</v>
+        <v>0.09777086011699865</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002563323136809103</v>
+        <v>0.0007420740529852067</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.61152063895014</v>
+        <v>3.116091580843033</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2512014200515011</v>
+        <v>0.2851750675672662</v>
       </c>
       <c r="M14">
-        <v>0.6558744180170493</v>
+        <v>1.253756922394359</v>
       </c>
       <c r="N14">
-        <v>2.835730517465009</v>
+        <v>2.074219185760086</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.76438317476925</v>
+        <v>8.104551579377244</v>
       </c>
       <c r="C15">
-        <v>0.9540950297712811</v>
+        <v>2.980569596295311</v>
       </c>
       <c r="D15">
-        <v>0.1096222820417552</v>
+        <v>0.3450090616830295</v>
       </c>
       <c r="E15">
-        <v>0.0354421406334815</v>
+        <v>0.0965094801667874</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.00256412951405884</v>
+        <v>0.0007437344756422963</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.606085110352453</v>
+        <v>3.084851937613507</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2506979581745838</v>
+        <v>0.2821403808032983</v>
       </c>
       <c r="M15">
-        <v>0.6529133513601408</v>
+        <v>1.238148766683395</v>
       </c>
       <c r="N15">
-        <v>2.83467690637633</v>
+        <v>2.067715432311076</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.649050309812651</v>
+        <v>7.51676259261427</v>
       </c>
       <c r="C16">
-        <v>0.9064635076065883</v>
+        <v>2.753980568961708</v>
       </c>
       <c r="D16">
-        <v>0.1040516369648969</v>
+        <v>0.3189710946474662</v>
       </c>
       <c r="E16">
-        <v>0.03381891263824954</v>
+        <v>0.08942690812357768</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002568818198651777</v>
+        <v>0.0007532204823071461</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.575323427547147</v>
+        <v>2.910117709496134</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2478523472617695</v>
+        <v>0.2650717266629385</v>
       </c>
       <c r="M16">
-        <v>0.636067798654409</v>
+        <v>1.150272741844397</v>
       </c>
       <c r="N16">
-        <v>2.828864060647902</v>
+        <v>2.032535316111677</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.578937242531083</v>
+        <v>7.164643928416467</v>
       </c>
       <c r="C17">
-        <v>0.8773867173488838</v>
+        <v>2.618464673930362</v>
       </c>
       <c r="D17">
-        <v>0.1006503212662437</v>
+        <v>0.3033798047155756</v>
       </c>
       <c r="E17">
-        <v>0.03282166733990621</v>
+        <v>0.08519903060578571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002571755113854874</v>
+        <v>0.0007590223479498137</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.556795476778575</v>
+        <v>2.806432450161722</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2461418126684833</v>
+        <v>0.2548648531844151</v>
       </c>
       <c r="M17">
-        <v>0.6258427586045059</v>
+        <v>1.097640972588955</v>
       </c>
       <c r="N17">
-        <v>2.825497626128083</v>
+        <v>2.012677031580353</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.538843310748859</v>
+        <v>6.964925579425085</v>
       </c>
       <c r="C18">
-        <v>0.8607143350986917</v>
+        <v>2.541671752123591</v>
       </c>
       <c r="D18">
-        <v>0.0986997812230328</v>
+        <v>0.294538490226131</v>
       </c>
       <c r="E18">
-        <v>0.0322475081280551</v>
+        <v>0.08280549678093152</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002573466677164761</v>
+        <v>0.000762356144787342</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.546264041484591</v>
+        <v>2.747968336840614</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2451708333703948</v>
+        <v>0.2490827308376851</v>
       </c>
       <c r="M18">
-        <v>0.6200014258956301</v>
+        <v>1.067793236261089</v>
       </c>
       <c r="N18">
-        <v>2.823634210339435</v>
+        <v>2.001836531375773</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.525308075379485</v>
+        <v>6.897760569108698</v>
       </c>
       <c r="C19">
-        <v>0.8550781628232471</v>
+        <v>2.515857457661355</v>
       </c>
       <c r="D19">
-        <v>0.09804034904165349</v>
+        <v>0.2915654415981379</v>
       </c>
       <c r="E19">
-        <v>0.0320530061782307</v>
+        <v>0.08200123446805208</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002574050024843093</v>
+        <v>0.000763484624504808</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.542719729990509</v>
+        <v>2.728364582902699</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2448442835728173</v>
+        <v>0.2471394709404393</v>
       </c>
       <c r="M19">
-        <v>0.6180304675853563</v>
+        <v>1.057756298775459</v>
       </c>
       <c r="N19">
-        <v>2.82301576077424</v>
+        <v>1.998261417566141</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.58637671487071</v>
+        <v>7.201830190221074</v>
       </c>
       <c r="C20">
-        <v>0.8804766068572007</v>
+        <v>2.632768550228946</v>
       </c>
       <c r="D20">
-        <v>0.1010117937279063</v>
+        <v>0.3050261440666873</v>
       </c>
       <c r="E20">
-        <v>0.03292788395093282</v>
+        <v>0.08564503714522687</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002571440165041494</v>
+        <v>0.000758405136151593</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.55875481679989</v>
+        <v>2.817346046825406</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.24632256849047</v>
+        <v>0.2559420408454969</v>
       </c>
       <c r="M20">
-        <v>0.6269271021101943</v>
+        <v>1.103198807838261</v>
       </c>
       <c r="N20">
-        <v>2.825848436722623</v>
+        <v>2.014729693007212</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.794359265113599</v>
+        <v>8.259192757961159</v>
       </c>
       <c r="C21">
-        <v>0.9664377357677267</v>
+        <v>3.040264204846324</v>
       </c>
       <c r="D21">
-        <v>0.1110655776253964</v>
+        <v>0.3518621242291573</v>
       </c>
       <c r="E21">
-        <v>0.03586081000502972</v>
+        <v>0.09837850554917082</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002562937651420238</v>
+        <v>0.000741277189716746</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.614134000504379</v>
+        <v>3.131152461709249</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2514435444999776</v>
+        <v>0.2866363228933011</v>
       </c>
       <c r="M21">
-        <v>0.657296517894622</v>
+        <v>1.261271028117065</v>
       </c>
       <c r="N21">
-        <v>2.836239749051714</v>
+        <v>2.077377021356341</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.932405999690673</v>
+        <v>8.982197630964379</v>
       </c>
       <c r="C22">
-        <v>1.023100205432343</v>
+        <v>3.319834156289801</v>
       </c>
       <c r="D22">
-        <v>0.1176903249757544</v>
+        <v>0.3839200842528925</v>
       </c>
       <c r="E22">
-        <v>0.03777338567346433</v>
+        <v>0.1071515037926254</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002557578056365238</v>
+        <v>0.0007299817386767646</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.651461435747152</v>
+        <v>3.349358691537446</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2549060067203186</v>
+        <v>0.3076798153727793</v>
       </c>
       <c r="M22">
-        <v>0.67750538407752</v>
+        <v>1.369387466581216</v>
       </c>
       <c r="N22">
-        <v>2.843689974315424</v>
+        <v>2.124690465540709</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.85853203332158</v>
+        <v>8.593011793420601</v>
       </c>
       <c r="C23">
-        <v>0.9928132815356889</v>
+        <v>3.169245593446249</v>
       </c>
       <c r="D23">
-        <v>0.1141495167582889</v>
+        <v>0.366659936268249</v>
       </c>
       <c r="E23">
-        <v>0.03675295801242129</v>
+        <v>0.1024217933863376</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002560420595378643</v>
+        <v>0.0007360235668743153</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.63143445767362</v>
+        <v>3.231551106494862</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2530473999686933</v>
+        <v>0.2963479600799843</v>
       </c>
       <c r="M23">
-        <v>0.666686236393744</v>
+        <v>1.311187561875641</v>
       </c>
       <c r="N23">
-        <v>2.839652869112967</v>
+        <v>2.09879002175532</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.583012660184693</v>
+        <v>7.185009882024929</v>
       </c>
       <c r="C24">
-        <v>0.8790795302008974</v>
+        <v>2.626298319184912</v>
       </c>
       <c r="D24">
-        <v>0.1008483567234038</v>
+        <v>0.3042814563321343</v>
       </c>
       <c r="E24">
-        <v>0.03287986601412385</v>
+        <v>0.08544328306360427</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002571582481349467</v>
+        <v>0.0007586841823426178</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.557868623945538</v>
+        <v>2.812408467846993</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2462408100777935</v>
+        <v>0.2554547785988461</v>
       </c>
       <c r="M24">
-        <v>0.6264367546719143</v>
+        <v>1.100684840961343</v>
       </c>
       <c r="N24">
-        <v>2.825689611123465</v>
+        <v>2.013799901962386</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.29471382866609</v>
+        <v>5.771304160632553</v>
       </c>
       <c r="C25">
-        <v>0.7583683289681744</v>
+        <v>2.08366822257085</v>
       </c>
       <c r="D25">
-        <v>0.08672154255728515</v>
+        <v>0.241715776917772</v>
       </c>
       <c r="E25">
-        <v>0.02867983450942901</v>
+        <v>0.06855430066569568</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002584476942991809</v>
+        <v>0.0007830271019490692</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.483298058301528</v>
+        <v>2.404206247553944</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2393904739806914</v>
+        <v>0.214662766414051</v>
       </c>
       <c r="M25">
-        <v>0.584540837694199</v>
+        <v>0.8894996287246357</v>
       </c>
       <c r="N25">
-        <v>2.813408059575139</v>
+        <v>1.943940993708068</v>
       </c>
       <c r="O25">
         <v>0</v>
